--- a/examcom/schema/mysql/msy_kbn.xlsx
+++ b/examcom/schema/mysql/msy_kbn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E302F811-3809-41FC-A4A0-BCF1E57D4A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD45834D-B6A9-4987-A49B-BACCF97672D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F0AEFB8-F6C0-4327-9288-A763B3563556}"/>
   </bookViews>
@@ -519,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11095EBB-49EF-4666-8C1D-6B9D1AD48E50}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
